--- a/public/tempExistencias.xlsx
+++ b/public/tempExistencias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>D.G.C.F.T</t>
   </si>
@@ -52,19 +52,13 @@
     <t>P. TOTAL</t>
   </si>
   <si>
-    <t>21101</t>
-  </si>
-  <si>
-    <t>Hojas de papel tamaño carta</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>Pizarron blanco</t>
-  </si>
-  <si>
-    <t>Pieza</t>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>Cubeta</t>
   </si>
 </sst>
 </file>
@@ -649,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="87" zoomScaleNormal="85">
       <selection activeCell="I3" sqref="I3"/>
@@ -679,10 +673,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K3" s="8">
         <v>2022</v>
@@ -764,51 +758,25 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="16">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="D3:H4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
